--- a/Market_Data/Marketdata 24-12-2021.xlsx
+++ b/Market_Data/Marketdata 24-12-2021.xlsx
@@ -2378,7 +2378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
       <selection activeCell="I323" sqref="I323"/>
     </sheetView>
   </sheetViews>
@@ -14637,7 +14637,7 @@
         <v>143</v>
       </c>
       <c r="I323">
-        <v>143.30000000000001</v>
+        <v>150</v>
       </c>
       <c r="J323">
         <v>-1.7</v>

--- a/Market_Data/Marketdata 24-12-2021.xlsx
+++ b/Market_Data/Marketdata 24-12-2021.xlsx
@@ -14637,7 +14637,7 @@
         <v>143</v>
       </c>
       <c r="I323">
-        <v>150</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="J323">
         <v>-1.7</v>
